--- a/documents/TESTEXCEL.xlsx
+++ b/documents/TESTEXCEL.xlsx
@@ -370,15 +370,37 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:A5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A5">
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/documents/TESTEXCEL.xlsx
+++ b/documents/TESTEXCEL.xlsx
@@ -370,10 +370,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A5"/>
+  <dimension ref="A1:A6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -401,6 +401,11 @@
     <row r="5" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A6">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/documents/TESTEXCEL.xlsx
+++ b/documents/TESTEXCEL.xlsx
@@ -373,7 +373,7 @@
   <dimension ref="A1:A6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>

--- a/documents/TESTEXCEL.xlsx
+++ b/documents/TESTEXCEL.xlsx
@@ -373,7 +373,7 @@
   <dimension ref="A1:A6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -398,11 +398,6 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A5">
-        <v>4</v>
-      </c>
-    </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>5</v>
